--- a/BE/Hinet.Api/wwwroot/uploads/ImportFile/AppUserImport.xlsx
+++ b/BE/Hinet.Api/wwwroot/uploads/ImportFile/AppUserImport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Tên đăng nhập</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Cán bộ ID</t>
+  </si>
+  <si>
+    <t>ID Nhân Sự</t>
   </si>
   <si>
     <t>GroupRole</t>
@@ -108,7 +111,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -125,7 +128,8 @@
     <col min="9" max="9" width="17.642419815063477" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="9.294206619262695" customWidth="1"/>
-    <col min="12" max="12" width="10.309087753295898" customWidth="1"/>
+    <col min="12" max="12" width="10.829827308654785" customWidth="1"/>
+    <col min="13" max="13" width="10.309087753295898" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -165,6 +169,9 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <headerFooter/>
